--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed5/result_data_KNN.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.858</v>
+        <v>6.265</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.394</v>
+        <v>-7.345999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.566</v>
+        <v>16.703</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>17.076</v>
+        <v>17.107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.508</v>
+        <v>-21.544</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.318</v>
+        <v>6.132</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.776</v>
+        <v>16.991</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.068</v>
+        <v>16.185</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.456</v>
+        <v>16.725</v>
       </c>
     </row>
     <row r="18">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.286</v>
+        <v>-7.765000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.164</v>
+        <v>-8.196999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.166</v>
+        <v>5.920999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.756</v>
+        <v>16.966</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.224</v>
+        <v>-21.531</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.609999999999999</v>
+        <v>-7.37</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.654</v>
+        <v>6.425</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.74</v>
+        <v>-21.345</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>7.198</v>
+        <v>7.287000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.29200000000001</v>
+        <v>-21.343</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.75</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.824000000000001</v>
+        <v>7.848000000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.93</v>
+        <v>-20.093</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.553999999999998</v>
+        <v>-8.161</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>7.036</v>
+        <v>5.928</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.212</v>
+        <v>-21.481</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.67</v>
+        <v>-7.575999999999999</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.23</v>
+        <v>5.378</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.764</v>
+        <v>-21.862</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.126</v>
+        <v>-22.21</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.046</v>
+        <v>-22.097</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.518</v>
+        <v>5.332</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.851999999999999</v>
+        <v>-8.178999999999998</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>16.96</v>
+        <v>17.185</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.603</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.636</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.888</v>
+        <v>-21.567</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.99</v>
+        <v>-7.812</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.328</v>
+        <v>17.266</v>
       </c>
     </row>
     <row r="80">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.853999999999999</v>
+        <v>6.375999999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.764</v>
+        <v>-20.146</v>
       </c>
       <c r="B83" t="n">
-        <v>7.465999999999999</v>
+        <v>7.326000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.196000000000002</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.268</v>
+        <v>-22.172</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.108000000000001</v>
+        <v>-7.105</v>
       </c>
       <c r="E89" t="n">
-        <v>17.696</v>
+        <v>17.517</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.286</v>
+        <v>-21.526</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.388</v>
+        <v>-7.139999999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.345999999999999</v>
+        <v>-7.056999999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.926</v>
+        <v>-21.665</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.401999999999999</v>
+        <v>-7.654999999999999</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.44</v>
+        <v>-20.437</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.517</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.852000000000001</v>
+        <v>7.499000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.568</v>
+        <v>-7.865</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
